--- a/datatest.xlsx
+++ b/datatest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4B4D3C-42F7-4F1D-BE7F-142331B28BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537D3FEB-7984-436D-8210-08F89CF683A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>patient_code</t>
   </si>
@@ -76,10 +76,7 @@
     <t>patient_service</t>
   </si>
   <si>
-    <t>24009682</t>
-  </si>
-  <si>
-    <t>Quách Bảo Hưng 09</t>
+    <t>patient_type</t>
   </si>
   <si>
     <t>Nam</t>
@@ -109,9 +106,6 @@
     <t>BHYT</t>
   </si>
   <si>
-    <t>CA5739000032198</t>
-  </si>
-  <si>
     <t>Bệnh viện đa khoa KV Long Khánh</t>
   </si>
   <si>
@@ -121,10 +115,7 @@
     <t>Khám Tai Mũi Họng 1</t>
   </si>
   <si>
-    <t>24009683</t>
-  </si>
-  <si>
-    <t>Phan Thị Thanh Huyền 03</t>
+    <t>Khám thường</t>
   </si>
   <si>
     <t>Nữ</t>
@@ -160,10 +151,7 @@
     <t>Khám Da Liễu</t>
   </si>
   <si>
-    <t>24009684</t>
-  </si>
-  <si>
-    <t>Phan Văn Thanh Tuấn 03</t>
+    <t>Khám cấp cứu</t>
   </si>
   <si>
     <t>France</t>
@@ -184,13 +172,40 @@
     <t>Phường 1</t>
   </si>
   <si>
-    <t>DN4216827361281</t>
+    <t>DN4216827361282</t>
   </si>
   <si>
     <t>PK Nội Tiết 1</t>
   </si>
   <si>
     <t>Khám Nội Tiết 1</t>
+  </si>
+  <si>
+    <t>Quách Bảo Hưng 11</t>
+  </si>
+  <si>
+    <t>Phan Thị Thanh Huyền 05</t>
+  </si>
+  <si>
+    <t>Phan Văn Thanh Tuấn 05</t>
+  </si>
+  <si>
+    <t>patient_company</t>
+  </si>
+  <si>
+    <t>Trường Mầm Non Phú Bình</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH FTT VINA</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH EVERWELL</t>
+  </si>
+  <si>
+    <t>patient_relative</t>
+  </si>
+  <si>
+    <t>patient_relativeName</t>
   </si>
 </sst>
 </file>
@@ -198,7 +213,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -222,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -245,16 +260,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,18 +586,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,149 +663,154 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2">
-        <v>36526</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
       <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="2">
-        <v>45292</v>
-      </c>
-      <c r="P2" s="2">
-        <v>45658</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>36892</v>
       </c>
       <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" t="s">
+      <c r="Q3" t="s">
         <v>41</v>
       </c>
-      <c r="K3" t="s">
+      <c r="R3" t="s">
         <v>42</v>
       </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" t="s">
-        <v>45</v>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>37257</v>
       </c>
       <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>49</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
       </c>
       <c r="O4" s="2">
         <v>45292</v>
@@ -774,10 +819,16 @@
         <v>45658</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="S4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/datatest.xlsx
+++ b/datatest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537D3FEB-7984-436D-8210-08F89CF683A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECA2398-C67B-424C-8509-76544ED38D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="18984" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>patient_code</t>
   </si>
@@ -79,6 +79,24 @@
     <t>patient_type</t>
   </si>
   <si>
+    <t>patient_company</t>
+  </si>
+  <si>
+    <t>patient_relative</t>
+  </si>
+  <si>
+    <t>patient_relativeName</t>
+  </si>
+  <si>
+    <t>patient_relativePhone</t>
+  </si>
+  <si>
+    <t>patient_relativeAddress</t>
+  </si>
+  <si>
+    <t>Quách Bảo Hưng 11</t>
+  </si>
+  <si>
     <t>Nam</t>
   </si>
   <si>
@@ -103,109 +121,106 @@
     <t>Phường Sông Hiến</t>
   </si>
   <si>
+    <t>Thu phí</t>
+  </si>
+  <si>
+    <t>PK Tai Mũi Họng 1</t>
+  </si>
+  <si>
+    <t>Khám Tai Mũi Họng 1</t>
+  </si>
+  <si>
+    <t>Khám cấp cứu</t>
+  </si>
+  <si>
+    <t>Trường Mầm Non Phú Bình</t>
+  </si>
+  <si>
+    <t>Cha</t>
+  </si>
+  <si>
+    <t>Quách Bảo Bình</t>
+  </si>
+  <si>
+    <t>549 ntl</t>
+  </si>
+  <si>
+    <t>Phan Thị Thanh Huyền 05</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Người nước ngoài</t>
+  </si>
+  <si>
+    <t>Y tế</t>
+  </si>
+  <si>
+    <t>34 John</t>
+  </si>
+  <si>
+    <t>Tỉnh Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t>Thành phố Huế</t>
+  </si>
+  <si>
+    <t>Phường Gia Hội</t>
+  </si>
+  <si>
+    <t>PK Da Liễu</t>
+  </si>
+  <si>
+    <t>Khám Da Liễu</t>
+  </si>
+  <si>
+    <t>Khám thường</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH FTT VINA</t>
+  </si>
+  <si>
+    <t>Phan Văn Thanh Tuấn 05</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Công nhân</t>
+  </si>
+  <si>
+    <t>15 Heny</t>
+  </si>
+  <si>
+    <t>Tỉnh Long An</t>
+  </si>
+  <si>
+    <t>Thành phố Tân An</t>
+  </si>
+  <si>
+    <t>Phường 1</t>
+  </si>
+  <si>
     <t>BHYT</t>
   </si>
   <si>
+    <t>DN4216827361282</t>
+  </si>
+  <si>
     <t>Bệnh viện đa khoa KV Long Khánh</t>
   </si>
   <si>
-    <t>PK Tai Mũi Họng 1</t>
-  </si>
-  <si>
-    <t>Khám Tai Mũi Họng 1</t>
-  </si>
-  <si>
-    <t>Khám thường</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Người nước ngoài</t>
-  </si>
-  <si>
-    <t>Y tế</t>
-  </si>
-  <si>
-    <t>34 John</t>
-  </si>
-  <si>
-    <t>Tỉnh Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t>Thành phố Huế</t>
-  </si>
-  <si>
-    <t>Phường Gia Hội</t>
-  </si>
-  <si>
-    <t>Thu phí</t>
-  </si>
-  <si>
-    <t>PK Da Liễu</t>
-  </si>
-  <si>
-    <t>Khám Da Liễu</t>
-  </si>
-  <si>
-    <t>Khám cấp cứu</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Công nhân</t>
-  </si>
-  <si>
-    <t>15 Heny</t>
-  </si>
-  <si>
-    <t>Tỉnh Long An</t>
-  </si>
-  <si>
-    <t>Thành phố Tân An</t>
-  </si>
-  <si>
-    <t>Phường 1</t>
-  </si>
-  <si>
-    <t>DN4216827361282</t>
-  </si>
-  <si>
     <t>PK Nội Tiết 1</t>
   </si>
   <si>
     <t>Khám Nội Tiết 1</t>
   </si>
   <si>
-    <t>Quách Bảo Hưng 11</t>
-  </si>
-  <si>
-    <t>Phan Thị Thanh Huyền 05</t>
-  </si>
-  <si>
-    <t>Phan Văn Thanh Tuấn 05</t>
-  </si>
-  <si>
-    <t>patient_company</t>
-  </si>
-  <si>
-    <t>Trường Mầm Non Phú Bình</t>
-  </si>
-  <si>
-    <t>Công Ty TNHH FTT VINA</t>
-  </si>
-  <si>
     <t>CÔNG TY TNHH EVERWELL</t>
-  </si>
-  <si>
-    <t>patient_relative</t>
-  </si>
-  <si>
-    <t>patient_relativeName</t>
   </si>
 </sst>
 </file>
@@ -213,7 +228,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -237,7 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -260,30 +275,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,29 +587,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="V9" sqref="V6:W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,151 +669,167 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>61</v>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>44562</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2">
+        <v>251972738</v>
+      </c>
+      <c r="X2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2">
         <v>36892</v>
       </c>
       <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>37257</v>
       </c>
       <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2">
         <v>45292</v>
@@ -819,16 +838,16 @@
         <v>45658</v>
       </c>
       <c r="Q4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="R4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="S4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/datatest.xlsx
+++ b/datatest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECA2398-C67B-424C-8509-76544ED38D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235973FD-B423-44AE-BABB-5D1F101AE273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2232" yWindow="2232" windowWidth="18984" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>patient_code</t>
   </si>
@@ -145,82 +145,37 @@
     <t>549 ntl</t>
   </si>
   <si>
-    <t>Phan Thị Thanh Huyền 05</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Người nước ngoài</t>
-  </si>
-  <si>
-    <t>Y tế</t>
-  </si>
-  <si>
-    <t>34 John</t>
-  </si>
-  <si>
-    <t>Tỉnh Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t>Thành phố Huế</t>
-  </si>
-  <si>
-    <t>Phường Gia Hội</t>
-  </si>
-  <si>
-    <t>PK Da Liễu</t>
-  </si>
-  <si>
-    <t>Khám Da Liễu</t>
-  </si>
-  <si>
-    <t>Khám thường</t>
-  </si>
-  <si>
-    <t>Công Ty TNHH FTT VINA</t>
-  </si>
-  <si>
-    <t>Phan Văn Thanh Tuấn 05</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Công nhân</t>
-  </si>
-  <si>
-    <t>15 Heny</t>
-  </si>
-  <si>
-    <t>Tỉnh Long An</t>
-  </si>
-  <si>
-    <t>Thành phố Tân An</t>
-  </si>
-  <si>
-    <t>Phường 1</t>
-  </si>
-  <si>
-    <t>BHYT</t>
-  </si>
-  <si>
-    <t>DN4216827361282</t>
-  </si>
-  <si>
-    <t>Bệnh viện đa khoa KV Long Khánh</t>
-  </si>
-  <si>
-    <t>PK Nội Tiết 1</t>
-  </si>
-  <si>
-    <t>Khám Nội Tiết 1</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH EVERWELL</t>
+    <t>patient_email</t>
+  </si>
+  <si>
+    <t>patient_phone</t>
+  </si>
+  <si>
+    <t>patient_blood</t>
+  </si>
+  <si>
+    <t>patient_blood_type</t>
+  </si>
+  <si>
+    <t>patient_cccd</t>
+  </si>
+  <si>
+    <t>baohung9715@gmail.com</t>
+  </si>
+  <si>
+    <t>Dương</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>patient_cccd_date</t>
+  </si>
+  <si>
+    <t>patient_cccd_place</t>
+  </si>
+  <si>
+    <t>Công An Thành phố Huế</t>
   </si>
 </sst>
 </file>
@@ -228,9 +183,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +198,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -275,18 +244,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -587,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V6:W9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,14 +593,24 @@
     <col min="9" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,8 +683,29 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -743,114 +763,41 @@
       <c r="X2" t="s">
         <v>40</v>
       </c>
+      <c r="Y2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2">
+        <v>356478888</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2">
+        <v>46200010760</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>44929</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2">
-        <v>36892</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" t="s">
-        <v>53</v>
-      </c>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2">
-        <v>37257</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="2">
-        <v>45292</v>
-      </c>
-      <c r="P4" s="2">
-        <v>45658</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" t="s">
-        <v>66</v>
-      </c>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Y2" r:id="rId1" xr:uid="{20552785-8E6F-42B6-9159-646940FAFD70}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/datatest.xlsx
+++ b/datatest.xlsx
@@ -597,7 +597,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24009718</t>
+          <t>24009724</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/datatest.xlsx
+++ b/datatest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05737523-8C1E-423E-B1AC-A7773369E9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EAFC55-5C6B-415E-929E-4EE5F4316E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="18984" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>patient_code</t>
   </si>
@@ -115,9 +115,6 @@
     <t>patient_cccd_place</t>
   </si>
   <si>
-    <t>24009724</t>
-  </si>
-  <si>
     <t>Quách Bảo Hưng 17</t>
   </si>
   <si>
@@ -185,6 +182,66 @@
   </si>
   <si>
     <t>Bị đau đầu, đau bụng, dạ dày</t>
+  </si>
+  <si>
+    <t>patient_icd_preliminary</t>
+  </si>
+  <si>
+    <t>patient_icd_main</t>
+  </si>
+  <si>
+    <t>patient_icd_attachment</t>
+  </si>
+  <si>
+    <t>A00</t>
+  </si>
+  <si>
+    <t>B70</t>
+  </si>
+  <si>
+    <t>A06.7</t>
+  </si>
+  <si>
+    <t>patient_note</t>
+  </si>
+  <si>
+    <t>Bệnh nhân cần phải nhập viện gấp, tình trạng của bệnh nhân rất xấu</t>
+  </si>
+  <si>
+    <t>patient_warehouse</t>
+  </si>
+  <si>
+    <t>Nhà thuốc 1</t>
+  </si>
+  <si>
+    <t>ParT163</t>
+  </si>
+  <si>
+    <t>patient_medical</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>noon</t>
+  </si>
+  <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>patient_advice</t>
+  </si>
+  <si>
+    <t>Nên uống sau khi ăn 15 phút</t>
+  </si>
+  <si>
+    <t>patient_med_servicecode</t>
+  </si>
+  <si>
+    <t>xq01</t>
   </si>
 </sst>
 </file>
@@ -192,7 +249,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -259,7 +316,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -565,23 +622,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,81 +742,117 @@
         <v>30</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>24009746</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>44562</v>
       </c>
       <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>42</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>43</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>44</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>45</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>46</v>
-      </c>
-      <c r="V2" t="s">
-        <v>47</v>
       </c>
       <c r="W2">
         <v>251972738</v>
       </c>
       <c r="X2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" t="s">
         <v>48</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>49</v>
       </c>
       <c r="Z2">
         <v>356478888</v>
       </c>
       <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" t="s">
         <v>50</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>51</v>
       </c>
       <c r="AC2">
         <v>46200010760</v>
@@ -759,10 +861,46 @@
         <v>44929</v>
       </c>
       <c r="AE2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF2" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>2</v>
+      </c>
+      <c r="AO2">
+        <v>3</v>
+      </c>
+      <c r="AP2">
+        <v>4</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
